--- a/data/trans_dic/P25A$preocupacion-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03838016552384586</v>
+        <v>0.0446820639509039</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05389780239911618</v>
+        <v>0.05362869078151706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01721051735688656</v>
+        <v>0.01779571492792361</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02553793895794336</v>
+        <v>0.0177188463748288</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0159923184985702</v>
+        <v>0.01608261794675644</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04157154923444246</v>
+        <v>0.04144863767774117</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05338637447554673</v>
+        <v>0.05525407724452284</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02239395750450763</v>
+        <v>0.02364642288948769</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1336546465434434</v>
+        <v>0.1476938862970663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.140930744192891</v>
+        <v>0.1403515834805089</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1058657036932055</v>
+        <v>0.1114100379311671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1681323943937376</v>
+        <v>0.1963076927815047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1724424152978332</v>
+        <v>0.1605619965617489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1382739934353638</v>
+        <v>0.1328075995526602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1231704408467913</v>
+        <v>0.1219801174752581</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1278917368734401</v>
+        <v>0.1274145604362628</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09427618660481486</v>
+        <v>0.09697480514701</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03455773952899512</v>
+        <v>0.0340603564579921</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05221355143710101</v>
+        <v>0.05005846677998495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.113608469886792</v>
+        <v>0.1181105887799307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05457386132827743</v>
+        <v>0.06120323123044719</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01059968661635982</v>
+        <v>0.01046527863625246</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06388497663746093</v>
+        <v>0.05583344631868131</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04680384429793458</v>
+        <v>0.05027801759179702</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04461097002426098</v>
+        <v>0.04503711066937792</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1106790588717408</v>
+        <v>0.1095829117495591</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1123646994450155</v>
+        <v>0.1120112793342872</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.134916818551854</v>
+        <v>0.134332997059132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.233179420806338</v>
+        <v>0.2412694748093897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2064663090599869</v>
+        <v>0.2065783159119279</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08708604914887734</v>
+        <v>0.09474914009448858</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1997607274305802</v>
+        <v>0.1976452685822172</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1189831674022367</v>
+        <v>0.120297034769629</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1090458025442026</v>
+        <v>0.1060422361847783</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2064974508476752</v>
+        <v>0.2027636669266336</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05531003038017734</v>
+        <v>0.05821853030001305</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02329394028371608</v>
+        <v>0.02309769069618714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06418428354335251</v>
+        <v>0.06204119781924728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02625899261374266</v>
+        <v>0.02610307708017833</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04257509118428014</v>
+        <v>0.0405701776377454</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01473926660005932</v>
+        <v>0.02462662808738536</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06161126640420806</v>
+        <v>0.05977943043991228</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04054933310881736</v>
+        <v>0.03626002980067277</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06063597139620067</v>
+        <v>0.06054744556253001</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1664566659693444</v>
+        <v>0.1703997285447028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09149208108676464</v>
+        <v>0.1002556028130985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1761669490860883</v>
+        <v>0.1760061195179588</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2357235870376055</v>
+        <v>0.2335517330781474</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.171500906823048</v>
+        <v>0.168552493883788</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1731853846238298</v>
+        <v>0.1655275264420629</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1582372621140208</v>
+        <v>0.1563504501835609</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1021353350422473</v>
+        <v>0.1012060447582961</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1459106948067963</v>
+        <v>0.1464780021666548</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03495206418799701</v>
+        <v>0.03417713237350121</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04565214922018247</v>
+        <v>0.04600958359923014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07835121606288792</v>
+        <v>0.07990173270609668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02133386802422485</v>
+        <v>0.02198154507947624</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0691735643289848</v>
+        <v>0.07247927133121813</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04086298400497206</v>
+        <v>0.0361526458413068</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03661625338432561</v>
+        <v>0.03777367333665931</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06329227632364673</v>
+        <v>0.0645170428935454</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07265173545045406</v>
+        <v>0.07218467974266769</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1060573541796831</v>
+        <v>0.1050597796411246</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1205142880408365</v>
+        <v>0.1211480653224297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1857661509650437</v>
+        <v>0.1814986322730666</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.117463217531933</v>
+        <v>0.1209952270918436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2021458186502992</v>
+        <v>0.2092087292069538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1395292389582768</v>
+        <v>0.1344972596850331</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09701038944846715</v>
+        <v>0.09489830436144624</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1299916040850467</v>
+        <v>0.1321473405004819</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1457292277468341</v>
+        <v>0.1436177160417962</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05576816226675835</v>
+        <v>0.0529754594265789</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0877422074895495</v>
+        <v>0.08633044215995492</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1145260989832519</v>
+        <v>0.1139416391904308</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1286444819565619</v>
+        <v>0.1275941704749428</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4968</v>
+        <v>5783</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10168</v>
+        <v>10117</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2034</v>
+        <v>2104</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1841</v>
+        <v>1277</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7098</v>
+        <v>7077</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13920</v>
+        <v>14407</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3852</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17299</v>
+        <v>19117</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26587</v>
+        <v>26478</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12514</v>
+        <v>13169</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6944</v>
+        <v>8107</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12431</v>
+        <v>11574</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7440</v>
+        <v>7146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21029</v>
+        <v>20826</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33347</v>
+        <v>33222</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16217</v>
+        <v>16681</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6457</v>
+        <v>6364</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12985</v>
+        <v>12449</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20138</v>
+        <v>20936</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4199</v>
+        <v>4709</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5515</v>
+        <v>4820</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12346</v>
+        <v>13263</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15481</v>
+        <v>15629</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29174</v>
+        <v>28885</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20995</v>
+        <v>20929</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33553</v>
+        <v>33408</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41334</v>
+        <v>42768</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15885</v>
+        <v>15894</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8562</v>
+        <v>9316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17246</v>
+        <v>17063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31386</v>
+        <v>31732</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>37841</v>
+        <v>36798</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54431</v>
+        <v>53447</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7428</v>
+        <v>7819</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4015</v>
+        <v>3981</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8571</v>
+        <v>8285</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4393</v>
+        <v>4186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1099</v>
+        <v>1836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10719</v>
+        <v>10401</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11172</v>
+        <v>9991</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12618</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22355</v>
+        <v>22885</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15769</v>
+        <v>17279</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23525</v>
+        <v>23504</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9354</v>
+        <v>9268</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17694</v>
+        <v>17390</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12913</v>
+        <v>12342</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27531</v>
+        <v>27202</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28141</v>
+        <v>27885</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30364</v>
+        <v>30482</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6081</v>
+        <v>5946</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9421</v>
+        <v>9495</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13828</v>
+        <v>14102</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1980</v>
+        <v>2040</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7816</v>
+        <v>8189</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4949</v>
+        <v>4378</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9769</v>
+        <v>10078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20213</v>
+        <v>20604</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21621</v>
+        <v>21482</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18452</v>
+        <v>18279</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24871</v>
+        <v>25001</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32785</v>
+        <v>32032</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10902</v>
+        <v>11230</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22839</v>
+        <v>23637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16898</v>
+        <v>16289</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25883</v>
+        <v>25319</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41513</v>
+        <v>42202</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43369</v>
+        <v>42740</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18727</v>
+        <v>17790</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>82592</v>
+        <v>81263</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>38459</v>
+        <v>38263</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>121094</v>
+        <v>120105</v>
       </c>
     </row>
     <row r="24">
